--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -77,15 +77,6 @@
     <t xml:space="preserve">What could be the role of a phases classification system for methodological research as described in Heinze et al. (2024)? https://onlinelibrary.wiley.com/doi/full/10.1002/bimj.202200222</t>
   </si>
   <si>
-    <t xml:space="preserve">Andisheh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakhshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jacob</t>
   </si>
   <si>
@@ -138,6 +129,43 @@
   </si>
   <si>
     <t xml:space="preserve">Is there any application of Bayesian sample size augment in the single arm trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juul Jørgensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1.1: How to balance adoptations of new statistical methods with the need for fast developed clinical programmes? Q1.2: Are there sometimes you would advise to go with an "old" method instead of trying something "new" out? Q2: How much extra time do you estimate that it takes to implement a new method for a study design? Q3: Is there a regulatory risk (e.g. longer interactions or pushback?) when using a new statistical method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindeløv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Do you have examples of important innovations that did not reach impact? Can we draw learnings from those examples?
+(2) What is the effect size of following all the recommendations from this session? For example, is it an increase from 10% probability of success to 25%?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattiello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the catalysts that help bringing innovation to fruition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Good statistical thinking, AI and maschine learning-what is a magical formula and long term vision? 2. How to inluence faster, eg bring new meaningful stats methodoly to applicatons and use?</t>
   </si>
 </sst>
 </file>
@@ -623,6 +651,39 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -146,8 +146,7 @@
     <t xml:space="preserve">Lindeløv</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) Do you have examples of important innovations that did not reach impact? Can we draw learnings from those examples?
-(2) What is the effect size of following all the recommendations from this session? For example, is it an increase from 10% probability of success to 25%?</t>
+    <t xml:space="preserve">(1) Do you have examples of important innovations that did not reach impact? Can we draw learnings from those examples? (2) What is the effect size of following all the recommendations from this session? For example, is it an increase from 10% probability of success to 25%?</t>
   </si>
   <si>
     <t xml:space="preserve">Federico</t>
@@ -166,6 +165,15 @@
   </si>
   <si>
     <t xml:space="preserve">1. Good statistical thinking, AI and maschine learning-what is a magical formula and long term vision? 2. How to inluence faster, eg bring new meaningful stats methodoly to applicatons and use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaoling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the one task statistician can do better than AI?</t>
   </si>
 </sst>
 </file>
@@ -684,6 +692,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t xml:space="preserve">what is the one task statistician can do better than AI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamitava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can we measure the success or impact of a statistical innovation once it has been implemented into a practice?</t>
   </si>
 </sst>
 </file>
@@ -703,6 +712,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -23,6 +23,60 @@
     <t xml:space="preserve">question</t>
   </si>
   <si>
+    <t xml:space="preserve">Anne-Laure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulesteix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What could be the role of a phases classification system for methodological research as described in Heinze et al. (2024)? https://onlinelibrary.wiley.com/doi/full/10.1002/bimj.202200222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming from core academia, how can one apply Bayesian statistics in oncological studies? What path one can follow to create statistical innovations for detection or diagnosis of cancer? What are the interesting milestones already achieved in this direction and what are the possible directions of work for the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunasekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At times when there is so much competition, how can we reduce the time to get a novel product to market sooner?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to avoid the double trap of 1) falling in love with your innovation and 2) losing the passion for the adequate solution to the real problem ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattiello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the catalysts that help bringing innovation to fruition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stærk-Østergaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we improve collaboration across industry and academia to push novel statistical methods into acceptance from both regulators and clinicians, and if so how?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jenny</t>
   </si>
   <si>
@@ -32,6 +86,15 @@
     <t xml:space="preserve">The agenda looks very good and emphasizes getting clinicians / nonstatisticians excited.  While indeed a formidable challenge in the route to change, we also experience headwinds from our own function--who perhaps struggle to separate seizing opportunities with debating enhancements.  In other words, how can we do a better job as statisticians to  show up as a united front so that our clinicians don't see methods as simply a matter of opinion?</t>
   </si>
   <si>
+    <t xml:space="preserve">Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindeløv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Do you have examples of important innovations that did not reach impact? Can we draw learnings from those examples? (2) What is the effect size of following all the recommendations from this session? For example, is it an increase from 10% probability of success to 25%?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juergen</t>
   </si>
   <si>
@@ -41,6 +104,42 @@
     <t xml:space="preserve">In which phase of drug development do you see the greatest need to innovate (e.g. FiH to PoC or PoC - MAA/ LCM? What are the most important barriers which prevent successful innovation and how to mitigate these?</t>
   </si>
   <si>
+    <t xml:space="preserve">Lada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Good statistical thinking, AI and maschine learning-what is a magical formula and long term vision? 2. How to inluence faster, eg bring new meaningful stats methodoly to applicatons and use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamitava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can we measure the success or impact of a statistical innovation once it has been implemented into a practice?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoessly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you deal with the subjectivity on methodological questions in many statistical areas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juul Jørgensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1.1: How to balance adoptations of new statistical methods with the need for fast developed clinical programmes? Q1.2: Are there sometimes you would advise to go with an "old" method instead of trying something "new" out? Q2: How much extra time do you estimate that it takes to implement a new method for a study design? Q3: Is there a regulatory risk (e.g. longer interactions or pushback?) when using a new statistical method?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stefan</t>
   </si>
   <si>
@@ -50,51 +149,6 @@
     <t xml:space="preserve">What measures do you take to quantify and measure impact? Which metrics are used?</t>
   </si>
   <si>
-    <t xml:space="preserve">Emmanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to avoid the double trap of 1) falling in love with your innovation and 2) losing the passion for the adequate solution to the real problem ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoessly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you deal with the subjectivity on methodological questions in many statistical areas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anne-Laure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boulesteix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What could be the role of a phases classification system for methodological research as described in Heinze et al. (2024)? https://onlinelibrary.wiley.com/doi/full/10.1002/bimj.202200222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stærk-Østergaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we improve collaboration across industry and academia to push novel statistical methods into acceptance from both regulators and clinicians, and if so how?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coming from core academia, how can one apply Bayesian statistics in oncological studies? What path one can follow to create statistical innovations for detection or diagnosis of cancer? What are the interesting milestones already achieved in this direction and what are the possible directions of work for the future?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Susan</t>
   </si>
   <si>
@@ -104,15 +158,6 @@
     <t xml:space="preserve">How do you know when a new innovation's benefit is great enough to make up for its (likely) added complexity or at least the hurdle of its unfamiliarity?</t>
   </si>
   <si>
-    <t xml:space="preserve">Divya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunasekar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At times when there is so much competition, how can we reduce the time to get a novel product to market sooner?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tu</t>
   </si>
   <si>
@@ -122,6 +167,15 @@
     <t xml:space="preserve">The biologic innovation is of no doubt to be a must in industry environment. However, statistical innovation is often considered an optional or 'nice-to-have' as long as regulatory requirements are met. How could we raise the importance of statistical innovation to the business and make it as a necessary part of clinical development process?</t>
   </si>
   <si>
+    <t xml:space="preserve">Xiaoling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the one task statistician can do better than AI?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xiaowei</t>
   </si>
   <si>
@@ -129,60 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is there any application of Bayesian sample size augment in the single arm trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pernille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juul Jørgensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1.1: How to balance adoptations of new statistical methods with the need for fast developed clinical programmes? Q1.2: Are there sometimes you would advise to go with an "old" method instead of trying something "new" out? Q2: How much extra time do you estimate that it takes to implement a new method for a study design? Q3: Is there a regulatory risk (e.g. longer interactions or pushback?) when using a new statistical method?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindeløv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Do you have examples of important innovations that did not reach impact? Can we draw learnings from those examples? (2) What is the effect size of following all the recommendations from this session? For example, is it an increase from 10% probability of success to 25%?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mattiello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the catalysts that help bringing innovation to fruition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Good statistical thinking, AI and maschine learning-what is a magical formula and long term vision? 2. How to inluence faster, eg bring new meaningful stats methodoly to applicatons and use?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiaoling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what is the one task statistician can do better than AI?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamitava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can we measure the success or impact of a statistical innovation once it has been implemented into a practice?</t>
   </si>
 </sst>
 </file>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">How do you deal with the subjectivity on methodological questions in many statistical areas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which policy challenge would you recommend focussing on.</t>
   </si>
   <si>
     <t xml:space="preserve">Pernille</t>
@@ -723,6 +732,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t xml:space="preserve">Is there any application of Bayesian sample size augment in the single arm trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
 </sst>
 </file>
@@ -743,6 +752,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">Coming from core academia, how can one apply Bayesian statistics in oncological studies? What path one can follow to create statistical innovations for detection or diagnosis of cancer? What are the interesting milestones already achieved in this direction and what are the possible directions of work for the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuhl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to improve cooperation and motivate Clinicians to walk beside the standard way?</t>
   </si>
   <si>
     <t xml:space="preserve">Divya</t>
@@ -763,6 +772,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yingwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the biggest hurdle to introduce innovation in clinical development and how to overcome it?</t>
   </si>
 </sst>
 </file>
@@ -783,6 +792,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">What measures do you take to quantify and measure impact? Which metrics are used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schandelmaier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Panel. Thanks for the seminar! We (Malena Chiaborelli, Stefan Schandelmaier) are establishing a group for methods implementation at the University of Basel. We will initially focus on "written methods guidance" which we believe plays a key role in the innovation to implementation process. We would be very interested in ideas on how we can improve methods guidance to maximise its usefulness and impact.</t>
   </si>
   <si>
     <t xml:space="preserve">Susan</t>
@@ -739,68 +745,79 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/upcoming/20250319/qs.xlsx
+++ b/upcoming/20250319/qs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t xml:space="preserve">question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stemke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to approach academia cross sectional with research projects?</t>
   </si>
   <si>
     <t xml:space="preserve">Anne-Laure</t>
@@ -745,18 +754,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -818,6 +827,17 @@
       </c>
       <c r="C24" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
